--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amun2101\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoang/SE_Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC6F3D-0ADA-4B44-982A-E63182C12683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2C29E5-3C6B-0F41-BBE1-E4FC4C3F0666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8E34750-C4E5-4F5E-86F9-65E43672ACEC}"/>
+    <workbookView xWindow="3800" yWindow="760" windowWidth="13220" windowHeight="17180" xr2:uid="{F8E34750-C4E5-4F5E-86F9-65E43672ACEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -50,22 +50,6 @@
     <t>Instanzen</t>
   </si>
   <si>
-    <t>Ein Spieler ist ein Bestandteil des Spiels und ist zugleich die Spielfigur. Die Spieler sind nacheinander an der Reihe.</t>
-  </si>
-  <si>
-    <t>name
-person
-amZug</t>
-  </si>
-  <si>
-    <t>Ein Spieler kann:
-- Einen Verdacht aussprechen
-- Würfeln
-- Eine Anklage erheben
-- Einen Hinweis notieren
-- Mischen</t>
-  </si>
-  <si>
     <t>2..6</t>
   </si>
   <si>
@@ -133,10 +117,6 @@
   </si>
   <si>
     <t>Greift auf &lt;&lt;enumeration&gt;&gt; Raumtyp zu, in der die 9 Räume aufgelistet sind</t>
-  </si>
-  <si>
-    <t>Das Spielbrett ist das Herz des Spiels, auf welchem sich die Spieler auf Gitterfeldern bewegen.
-Dadurch gelangen Sie in die Räume und Geheimgänge. Das Spielbrett stellt eine Villa dar mit dem Namen  "Villa Neubrunn"</t>
   </si>
   <si>
     <t>Komposition aus:
@@ -274,6 +254,25 @@
   </si>
   <si>
     <t>Waffe</t>
+  </si>
+  <si>
+    <t>Ein Spieler ist ein Bestandteil des Spiels und ist zugleich die Spielfigur. Die Spieler sind nacheinander an der Reihe. Der Spieler bewegt sich durch die Villa über Gitterfelder, nachdem er gewürfelt hat. Ein Raum darf nur durch die Tür betreten werden, sobald man einen betritt, verfällt der Rest des Wurfes und man muss im Raum stehen bleiben. Falls ein Spieler verdächtigt/angeklagt wird, nimmt er die Rolle des Verdächtigten/Angeklagten ein.</t>
+  </si>
+  <si>
+    <t>Das Spielbrett ist das Herz des Spiels, auf welchem sich die Spieler auf Gitterfeldern bewegen. Dadurch gelangen Sie in die Räume und Geheimgänge. Das Spielbrett stellt eine Villa dar mit dem Namen  "Villa Neubrunn"</t>
+  </si>
+  <si>
+    <t>Ein Spieler kann:
+- Einen Verdacht aussprechen
+- Würfeln
+- Eine Anklage erheben
+- Einen Hinweis notieren</t>
+  </si>
+  <si>
+    <t>name
+person
+amZug
+nimmt bei Verdächtung/Anklage die Rolle des Verdächtigten/Angeklagten an</t>
   </si>
 </sst>
 </file>
@@ -384,6 +383,16 @@
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -401,16 +410,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -480,10 +479,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{416EE675-EF95-436C-9669-197A58D37A04}" name="Tabelle2" displayName="Tabelle2" ref="A1:A19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{416EE675-EF95-436C-9669-197A58D37A04}" name="Tabelle2" displayName="Tabelle2" ref="A1:A19" totalsRowShown="0" headerRowDxfId="3" dataDxfId="1" headerRowBorderDxfId="2">
   <autoFilter ref="A1:A19" xr:uid="{416EE675-EF95-436C-9669-197A58D37A04}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C8ED38D7-C04E-4566-967C-460463CD7F24}" name="Name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C8ED38D7-C04E-4566-967C-460463CD7F24}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,19 +787,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDBFB47-293B-4FC2-8F8D-4963369ED528}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="70.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -815,287 +814,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
